--- a/resources/plot-csv-files/63-matrices-single-precision-rci.xlsx
+++ b/resources/plot-csv-files/63-matrices-single-precision-rci.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cejkaluk\git\research-assignment-LU-decomposition\resources\plot-csv-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63124217-4288-40DE-9A23-20ED717F9BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12901AA-FF86-480D-B5A3-0260088CF866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{EB188C0A-FAF6-472A-8029-F7F1C455370D}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{EB188C0A-FAF6-472A-8029-F7F1C455370D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
   <si>
     <t>id</t>
   </si>
@@ -228,18 +228,6 @@
   </si>
   <si>
     <t>matrix-name</t>
-  </si>
-  <si>
-    <t>cm-bandwidth</t>
-  </si>
-  <si>
-    <t>icm8-bandwidth</t>
-  </si>
-  <si>
-    <t>icm16-bandwidth</t>
-  </si>
-  <si>
-    <t>icm32-bandwidth</t>
   </si>
   <si>
     <t>icm8-speedup</t>
@@ -299,22 +287,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -624,26 +597,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EB636D-FE6B-437A-94AD-9719587C6509}">
-  <dimension ref="A1:L64"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -651,37 +621,25 @@
         <v>63</v>
       </c>
       <c r="C1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" t="s">
         <v>64</v>
-      </c>
-      <c r="D1" t="s">
-        <v>65</v>
       </c>
       <c r="E1" t="s">
         <v>66</v>
       </c>
       <c r="F1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" t="s">
         <v>69</v>
       </c>
-      <c r="K1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -689,37 +647,25 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>4.8600000000000003</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>1.4E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E2">
-        <v>1.4999999999999999E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F2">
-        <v>1.4E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0.125</v>
       </c>
       <c r="H2">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="I2">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="J2">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="K2">
-        <v>0.125</v>
-      </c>
-      <c r="L2">
         <v>0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -727,37 +673,25 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>2.4249999999999998</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>6.0999999999999999E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E3">
-        <v>6.4000000000000001E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="F3">
-        <v>6.0999999999999999E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="H3">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="I3">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="J3">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="K3">
         <v>32</v>
       </c>
-      <c r="L3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -765,37 +699,25 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>1.8540000000000001</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0.68600000000000005</v>
+        <v>0.372</v>
       </c>
       <c r="E4">
-        <v>0.78500000000000003</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="F4">
-        <v>0.80700000000000005</v>
+        <v>0.438</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>4.8828119999999998E-4</v>
       </c>
       <c r="H4">
-        <v>0.372</v>
-      </c>
-      <c r="I4">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="J4">
-        <v>0.438</v>
-      </c>
-      <c r="K4">
-        <v>4.8828119999999998E-4</v>
-      </c>
-      <c r="L4">
         <v>9.765625E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -803,37 +725,25 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>1.8540000000000001</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>6.3E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="E5">
-        <v>6.7000000000000004E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="F5">
-        <v>6.2E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="I5">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="J5">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="K5">
         <v>0</v>
       </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -841,37 +751,25 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>1.107</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>7.5999999999999998E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="E6">
-        <v>8.5999999999999993E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="F6">
-        <v>7.9000000000000001E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>3.7252900000000001E-9</v>
       </c>
       <c r="H6">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="I6">
-        <v>7.8E-2</v>
-      </c>
-      <c r="J6">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="K6">
         <v>3.7252900000000001E-9</v>
       </c>
-      <c r="L6">
-        <v>3.7252900000000001E-9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -879,37 +777,25 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>1.012</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0.11600000000000001</v>
+        <v>0.115</v>
       </c>
       <c r="E7">
-        <v>0.127</v>
+        <v>0.125</v>
       </c>
       <c r="F7">
-        <v>0.11600000000000001</v>
+        <v>0.115</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>4096</v>
       </c>
       <c r="H7">
-        <v>0.115</v>
-      </c>
-      <c r="I7">
-        <v>0.125</v>
-      </c>
-      <c r="J7">
-        <v>0.115</v>
-      </c>
-      <c r="K7">
         <v>4096</v>
       </c>
-      <c r="L7">
-        <v>4096</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -917,37 +803,25 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>0.63400000000000001</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>0.91800000000000004</v>
+        <v>1.448</v>
       </c>
       <c r="E8">
-        <v>1.018</v>
+        <v>1.605</v>
       </c>
       <c r="F8">
-        <v>0.90400000000000003</v>
+        <v>1.427</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>3.8146969999999998E-6</v>
       </c>
       <c r="H8">
-        <v>1.448</v>
-      </c>
-      <c r="I8">
-        <v>1.605</v>
-      </c>
-      <c r="J8">
-        <v>1.427</v>
-      </c>
-      <c r="K8">
         <v>3.8146969999999998E-6</v>
       </c>
-      <c r="L8">
-        <v>3.8146969999999998E-6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -955,37 +829,25 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>0.83799999999999997</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0.40100000000000002</v>
+        <v>0.47799999999999998</v>
       </c>
       <c r="E9">
-        <v>0.435</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="F9">
-        <v>0.38200000000000001</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H9">
-        <v>0.47799999999999998</v>
-      </c>
-      <c r="I9">
-        <v>0.51800000000000002</v>
-      </c>
-      <c r="J9">
-        <v>0.45500000000000002</v>
-      </c>
-      <c r="K9">
-        <v>0.5</v>
-      </c>
-      <c r="L9">
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -993,37 +855,25 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>0.78400000000000003</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0.20699999999999999</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="E10">
-        <v>0.22800000000000001</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="F10">
-        <v>0.20300000000000001</v>
+        <v>0.26</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="H10">
-        <v>0.26400000000000001</v>
-      </c>
-      <c r="I10">
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="J10">
-        <v>0.26</v>
-      </c>
-      <c r="K10">
-        <v>0.25</v>
-      </c>
-      <c r="L10">
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1031,37 +881,25 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>0.69699999999999995</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>0.51400000000000001</v>
+        <v>0.73699999999999999</v>
       </c>
       <c r="E11">
-        <v>0.55100000000000005</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="F11">
-        <v>0.52500000000000002</v>
+        <v>0.753</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0.125</v>
       </c>
       <c r="H11">
-        <v>0.73699999999999999</v>
-      </c>
-      <c r="I11">
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="J11">
-        <v>0.753</v>
-      </c>
-      <c r="K11">
         <v>0.125</v>
       </c>
-      <c r="L11">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1069,37 +907,25 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>0.20499999999999999</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>0.59199999999999997</v>
+        <v>2.883</v>
       </c>
       <c r="E12">
-        <v>0.67800000000000005</v>
+        <v>3.302</v>
       </c>
       <c r="F12">
-        <v>0.65600000000000003</v>
+        <v>3.1970000000000001</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>2.3841859999999999E-7</v>
       </c>
       <c r="H12">
-        <v>2.883</v>
-      </c>
-      <c r="I12">
-        <v>3.302</v>
-      </c>
-      <c r="J12">
-        <v>3.1970000000000001</v>
-      </c>
-      <c r="K12">
         <v>2.3841859999999999E-7</v>
       </c>
-      <c r="L12">
-        <v>2.3841859999999999E-7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1107,37 +933,25 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>0.20200000000000001</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>1.42</v>
+        <v>7.0369999999999999</v>
       </c>
       <c r="E13">
-        <v>3.036</v>
+        <v>15.042</v>
       </c>
       <c r="F13">
-        <v>2.7869999999999999</v>
+        <v>13.811999999999999</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="H13">
-        <v>7.0369999999999999</v>
-      </c>
-      <c r="I13">
-        <v>15.042</v>
-      </c>
-      <c r="J13">
-        <v>13.811999999999999</v>
-      </c>
-      <c r="K13">
         <v>32</v>
       </c>
-      <c r="L13">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1145,37 +959,25 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>0.20300000000000001</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>2.6509999999999998</v>
+        <v>13.068</v>
       </c>
       <c r="E14">
-        <v>3.044</v>
+        <v>15.005000000000001</v>
       </c>
       <c r="F14">
-        <v>2.8159999999999998</v>
+        <v>13.887</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="H14">
-        <v>13.068</v>
-      </c>
-      <c r="I14">
-        <v>15.005000000000001</v>
-      </c>
-      <c r="J14">
-        <v>13.887</v>
-      </c>
-      <c r="K14">
         <v>32</v>
       </c>
-      <c r="L14">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1183,37 +985,25 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>0.16800000000000001</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>0.69699999999999995</v>
+        <v>4.1459999999999999</v>
       </c>
       <c r="E15">
-        <v>0.89800000000000002</v>
+        <v>5.3410000000000002</v>
       </c>
       <c r="F15">
-        <v>0.84</v>
+        <v>4.9989999999999997</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>16777220</v>
       </c>
       <c r="H15">
-        <v>4.1459999999999999</v>
-      </c>
-      <c r="I15">
-        <v>5.3410000000000002</v>
-      </c>
-      <c r="J15">
-        <v>4.9989999999999997</v>
-      </c>
-      <c r="K15">
-        <v>16777220</v>
-      </c>
-      <c r="L15">
         <v>2097152</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1221,37 +1011,25 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>0.16700000000000001</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>1.0029999999999999</v>
+        <v>5.9980000000000002</v>
       </c>
       <c r="E16">
-        <v>0.92200000000000004</v>
+        <v>5.5110000000000001</v>
       </c>
       <c r="F16">
-        <v>1.139</v>
+        <v>6.8090000000000002</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>6.1035159999999999E-5</v>
       </c>
       <c r="H16">
-        <v>5.9980000000000002</v>
-      </c>
-      <c r="I16">
-        <v>5.5110000000000001</v>
-      </c>
-      <c r="J16">
-        <v>6.8090000000000002</v>
-      </c>
-      <c r="K16">
-        <v>6.1035159999999999E-5</v>
-      </c>
-      <c r="L16">
         <v>4.8828119999999998E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1259,37 +1037,25 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>1.41</v>
+        <v>11.743</v>
       </c>
       <c r="E17">
-        <v>1.5840000000000001</v>
+        <v>13.196999999999999</v>
       </c>
       <c r="F17">
-        <v>1.006</v>
+        <v>8.3770000000000007</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>1.220703E-4</v>
       </c>
       <c r="H17">
-        <v>11.743</v>
-      </c>
-      <c r="I17">
-        <v>13.196999999999999</v>
-      </c>
-      <c r="J17">
-        <v>8.3770000000000007</v>
-      </c>
-      <c r="K17">
         <v>1.220703E-4</v>
       </c>
-      <c r="L17">
-        <v>1.220703E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1297,37 +1063,25 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>0.115</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>2.8540000000000001</v>
+        <v>24.786999999999999</v>
       </c>
       <c r="E18">
-        <v>3.36</v>
+        <v>29.183</v>
       </c>
       <c r="F18">
-        <v>3.0720000000000001</v>
+        <v>26.677</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>6.1035159999999999E-5</v>
       </c>
       <c r="H18">
-        <v>24.786999999999999</v>
-      </c>
-      <c r="I18">
-        <v>29.183</v>
-      </c>
-      <c r="J18">
-        <v>26.677</v>
-      </c>
-      <c r="K18">
         <v>6.1035159999999999E-5</v>
       </c>
-      <c r="L18">
-        <v>6.1035159999999999E-5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1335,37 +1089,25 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>9.4E-2</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>5.5140000000000002</v>
+        <v>58.466999999999999</v>
       </c>
       <c r="E19">
-        <v>7.0449999999999999</v>
+        <v>74.677000000000007</v>
       </c>
       <c r="F19">
-        <v>6.4340000000000002</v>
+        <v>68.195999999999998</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>524288</v>
       </c>
       <c r="H19">
-        <v>58.466999999999999</v>
-      </c>
-      <c r="I19">
-        <v>74.677000000000007</v>
-      </c>
-      <c r="J19">
-        <v>68.195999999999998</v>
-      </c>
-      <c r="K19">
-        <v>524288</v>
-      </c>
-      <c r="L19">
         <v>16384</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1373,37 +1115,25 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>7.0999999999999994E-2</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>7.0270000000000001</v>
+        <v>98.896000000000001</v>
       </c>
       <c r="E20">
-        <v>9.7219999999999995</v>
+        <v>136.791</v>
       </c>
       <c r="F20">
-        <v>9.0790000000000006</v>
+        <v>127.779</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="H20">
-        <v>98.896000000000001</v>
-      </c>
-      <c r="I20">
-        <v>136.791</v>
-      </c>
-      <c r="J20">
-        <v>127.779</v>
-      </c>
-      <c r="K20">
-        <v>32</v>
-      </c>
-      <c r="L20">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1411,37 +1141,25 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>7.0999999999999994E-2</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>4.4980000000000002</v>
+        <v>63.484000000000002</v>
       </c>
       <c r="E21">
-        <v>6.9729999999999999</v>
+        <v>98.417000000000002</v>
       </c>
       <c r="F21">
-        <v>5.3460000000000001</v>
+        <v>75.456999999999994</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H21">
-        <v>63.484000000000002</v>
-      </c>
-      <c r="I21">
-        <v>98.417000000000002</v>
-      </c>
-      <c r="J21">
-        <v>75.456999999999994</v>
-      </c>
-      <c r="K21">
         <v>4</v>
       </c>
-      <c r="L21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1449,37 +1167,25 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>7.0999999999999994E-2</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>5.2160000000000002</v>
+        <v>73.677999999999997</v>
       </c>
       <c r="E22">
-        <v>8.9689999999999994</v>
+        <v>126.697</v>
       </c>
       <c r="F22">
-        <v>5.7930000000000001</v>
+        <v>81.826999999999998</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>73.677999999999997</v>
-      </c>
-      <c r="I22">
-        <v>126.697</v>
-      </c>
-      <c r="J22">
-        <v>81.826999999999998</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1487,37 +1193,25 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>6.7000000000000004E-2</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>1.8580000000000001</v>
+        <v>27.544</v>
       </c>
       <c r="E23">
-        <v>3.1160000000000001</v>
+        <v>46.197000000000003</v>
       </c>
       <c r="F23">
-        <v>2.7450000000000001</v>
+        <v>40.695999999999998</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>1.220703E-4</v>
       </c>
       <c r="H23">
-        <v>27.544</v>
-      </c>
-      <c r="I23">
-        <v>46.197000000000003</v>
-      </c>
-      <c r="J23">
-        <v>40.695999999999998</v>
-      </c>
-      <c r="K23">
-        <v>1.220703E-4</v>
-      </c>
-      <c r="L23">
         <v>4.8828119999999998E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1525,37 +1219,25 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>6.3E-2</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>9.5329999999999995</v>
+        <v>152.37299999999999</v>
       </c>
       <c r="E24">
-        <v>11.875999999999999</v>
+        <v>189.791</v>
       </c>
       <c r="F24">
-        <v>10.018000000000001</v>
+        <v>160.114</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H24">
-        <v>152.37299999999999</v>
-      </c>
-      <c r="I24">
-        <v>189.791</v>
-      </c>
-      <c r="J24">
-        <v>160.114</v>
-      </c>
-      <c r="K24">
-        <v>6.25E-2</v>
-      </c>
-      <c r="L24">
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1563,37 +1245,25 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>6.2E-2</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>9.2940000000000005</v>
+        <v>148.79400000000001</v>
       </c>
       <c r="E25">
-        <v>10.119</v>
+        <v>161.97300000000001</v>
       </c>
       <c r="F25">
-        <v>8.0370000000000008</v>
+        <v>128.65899999999999</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>5.859375E-3</v>
       </c>
       <c r="H25">
-        <v>148.79400000000001</v>
-      </c>
-      <c r="I25">
-        <v>161.97300000000001</v>
-      </c>
-      <c r="J25">
-        <v>128.65899999999999</v>
-      </c>
-      <c r="K25">
-        <v>5.859375E-3</v>
-      </c>
-      <c r="L25">
         <v>6.1035159999999999E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1601,37 +1271,25 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>5.0999999999999997E-2</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>6.7119999999999997</v>
+        <v>130.614</v>
       </c>
       <c r="E26">
-        <v>6.4740000000000002</v>
+        <v>125.97799999999999</v>
       </c>
       <c r="F26">
-        <v>5.4130000000000003</v>
+        <v>105.346</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="H26">
-        <v>130.614</v>
-      </c>
-      <c r="I26">
-        <v>125.97799999999999</v>
-      </c>
-      <c r="J26">
-        <v>105.346</v>
-      </c>
-      <c r="K26">
-        <v>32</v>
-      </c>
-      <c r="L26">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1639,37 +1297,25 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>5.0999999999999997E-2</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>6.2839999999999998</v>
+        <v>122.53700000000001</v>
       </c>
       <c r="E27">
-        <v>8.3629999999999995</v>
+        <v>163.08500000000001</v>
       </c>
       <c r="F27">
-        <v>7.6470000000000002</v>
+        <v>149.114</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="H27">
-        <v>122.53700000000001</v>
-      </c>
-      <c r="I27">
-        <v>163.08500000000001</v>
-      </c>
-      <c r="J27">
-        <v>149.114</v>
-      </c>
-      <c r="K27">
-        <v>32</v>
-      </c>
-      <c r="L27">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1677,37 +1323,25 @@
         <v>57</v>
       </c>
       <c r="C28">
-        <v>4.5999999999999999E-2</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>6.3E-2</v>
+        <v>1.383</v>
       </c>
       <c r="E28">
-        <v>7.5999999999999998E-2</v>
+        <v>1.665</v>
       </c>
       <c r="F28">
-        <v>7.0000000000000007E-2</v>
+        <v>1.5269999999999999</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>5.7413639999999999</v>
       </c>
       <c r="H28">
-        <v>1.383</v>
-      </c>
-      <c r="I28">
-        <v>1.665</v>
-      </c>
-      <c r="J28">
-        <v>1.5269999999999999</v>
-      </c>
-      <c r="K28">
-        <v>5.7413639999999999</v>
-      </c>
-      <c r="L28">
         <v>13.07728</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1715,37 +1349,25 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>4.2000000000000003E-2</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>9.2330000000000005</v>
+        <v>221.721</v>
       </c>
       <c r="E29">
-        <v>11.4</v>
+        <v>273.77199999999999</v>
       </c>
       <c r="F29">
-        <v>10.416</v>
+        <v>250.09899999999999</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>512</v>
       </c>
       <c r="H29">
-        <v>221.721</v>
-      </c>
-      <c r="I29">
-        <v>273.77199999999999</v>
-      </c>
-      <c r="J29">
-        <v>250.09899999999999</v>
-      </c>
-      <c r="K29">
-        <v>512</v>
-      </c>
-      <c r="L29">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1753,37 +1375,25 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>3.9E-2</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>10.132999999999999</v>
+        <v>258.98399999999998</v>
       </c>
       <c r="E30">
-        <v>14.006</v>
+        <v>357.95499999999998</v>
       </c>
       <c r="F30">
-        <v>12.946</v>
+        <v>330.83199999999999</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>4096</v>
       </c>
       <c r="H30">
-        <v>258.98399999999998</v>
-      </c>
-      <c r="I30">
-        <v>357.95499999999998</v>
-      </c>
-      <c r="J30">
-        <v>330.83199999999999</v>
-      </c>
-      <c r="K30">
-        <v>4096</v>
-      </c>
-      <c r="L30">
         <v>256</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1791,37 +1401,25 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>3.9E-2</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>12.327999999999999</v>
+        <v>315.24200000000002</v>
       </c>
       <c r="E31">
-        <v>15.726000000000001</v>
+        <v>402.14299999999997</v>
       </c>
       <c r="F31">
-        <v>12.246</v>
+        <v>313.14699999999999</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>315.24200000000002</v>
-      </c>
-      <c r="I31">
-        <v>402.14299999999997</v>
-      </c>
-      <c r="J31">
-        <v>313.14699999999999</v>
-      </c>
-      <c r="K31">
         <v>0</v>
       </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1829,37 +1427,25 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>3.6999999999999998E-2</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>10.119999999999999</v>
+        <v>270.38799999999998</v>
       </c>
       <c r="E32">
-        <v>14.928000000000001</v>
+        <v>398.88499999999999</v>
       </c>
       <c r="F32">
-        <v>14.301</v>
+        <v>382.09199999999998</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>32768</v>
       </c>
       <c r="H32">
-        <v>270.38799999999998</v>
-      </c>
-      <c r="I32">
-        <v>398.88499999999999</v>
-      </c>
-      <c r="J32">
-        <v>382.09199999999998</v>
-      </c>
-      <c r="K32">
-        <v>32768</v>
-      </c>
-      <c r="L32">
         <v>512</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1867,37 +1453,25 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>2.5000000000000001E-2</v>
+        <v>1</v>
       </c>
       <c r="D33">
-        <v>1.1020000000000001</v>
+        <v>44.557000000000002</v>
       </c>
       <c r="E33">
-        <v>1.409</v>
+        <v>56.970999999999997</v>
       </c>
       <c r="F33">
-        <v>1.2010000000000001</v>
+        <v>48.582000000000001</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>1.490116E-8</v>
       </c>
       <c r="H33">
-        <v>44.557000000000002</v>
-      </c>
-      <c r="I33">
-        <v>56.970999999999997</v>
-      </c>
-      <c r="J33">
-        <v>48.582000000000001</v>
-      </c>
-      <c r="K33">
-        <v>1.490116E-8</v>
-      </c>
-      <c r="L33">
         <v>2.9802320000000001E-8</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1905,37 +1479,25 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>0.03</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>1.587</v>
+        <v>53.226999999999997</v>
       </c>
       <c r="E34">
-        <v>2.528</v>
+        <v>84.802000000000007</v>
       </c>
       <c r="F34">
-        <v>2.371</v>
+        <v>79.518000000000001</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>3.0517579999999999E-5</v>
       </c>
       <c r="H34">
-        <v>53.226999999999997</v>
-      </c>
-      <c r="I34">
-        <v>84.802000000000007</v>
-      </c>
-      <c r="J34">
-        <v>79.518000000000001</v>
-      </c>
-      <c r="K34">
         <v>3.0517579999999999E-5</v>
       </c>
-      <c r="L34">
-        <v>3.0517579999999999E-5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1943,37 +1505,25 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>2.9000000000000001E-2</v>
+        <v>1</v>
       </c>
       <c r="D35">
-        <v>9.9209999999999994</v>
+        <v>337.86799999999999</v>
       </c>
       <c r="E35">
-        <v>12.648999999999999</v>
+        <v>430.73200000000003</v>
       </c>
       <c r="F35">
-        <v>11.176</v>
+        <v>380.55799999999999</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>4.7683719999999998E-7</v>
       </c>
       <c r="H35">
-        <v>337.86799999999999</v>
-      </c>
-      <c r="I35">
-        <v>430.73200000000003</v>
-      </c>
-      <c r="J35">
-        <v>380.55799999999999</v>
-      </c>
-      <c r="K35">
-        <v>4.7683719999999998E-7</v>
-      </c>
-      <c r="L35">
         <v>1.220703E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1981,37 +1531,25 @@
         <v>58</v>
       </c>
       <c r="C36">
-        <v>2.5999999999999999E-2</v>
+        <v>1</v>
       </c>
       <c r="D36">
-        <v>5.2999999999999999E-2</v>
+        <v>2.0470000000000002</v>
       </c>
       <c r="E36">
-        <v>7.5999999999999998E-2</v>
+        <v>2.9369999999999998</v>
       </c>
       <c r="F36">
-        <v>7.4999999999999997E-2</v>
+        <v>2.9049999999999998</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>44.935969999999998</v>
       </c>
       <c r="H36">
-        <v>2.0470000000000002</v>
-      </c>
-      <c r="I36">
-        <v>2.9369999999999998</v>
-      </c>
-      <c r="J36">
-        <v>2.9049999999999998</v>
-      </c>
-      <c r="K36">
-        <v>44.935969999999998</v>
-      </c>
-      <c r="L36">
         <v>22.435700000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2019,37 +1557,25 @@
         <v>34</v>
       </c>
       <c r="C37">
-        <v>2.5000000000000001E-2</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>0.93799999999999994</v>
+        <v>36.911000000000001</v>
       </c>
       <c r="E37">
-        <v>1.0429999999999999</v>
+        <v>41.027999999999999</v>
       </c>
       <c r="F37">
-        <v>1.0980000000000001</v>
+        <v>43.195</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>1.192093E-7</v>
       </c>
       <c r="H37">
-        <v>36.911000000000001</v>
-      </c>
-      <c r="I37">
-        <v>41.027999999999999</v>
-      </c>
-      <c r="J37">
-        <v>43.195</v>
-      </c>
-      <c r="K37">
         <v>1.192093E-7</v>
       </c>
-      <c r="L37">
-        <v>1.192093E-7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2057,37 +1583,25 @@
         <v>35</v>
       </c>
       <c r="C38">
-        <v>2.5000000000000001E-2</v>
+        <v>1</v>
       </c>
       <c r="D38">
-        <v>0.95499999999999996</v>
+        <v>38.085000000000001</v>
       </c>
       <c r="E38">
-        <v>1.0720000000000001</v>
+        <v>42.753999999999998</v>
       </c>
       <c r="F38">
-        <v>1.036</v>
+        <v>41.319000000000003</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>1.192093E-7</v>
       </c>
       <c r="H38">
-        <v>38.085000000000001</v>
-      </c>
-      <c r="I38">
-        <v>42.753999999999998</v>
-      </c>
-      <c r="J38">
-        <v>41.319000000000003</v>
-      </c>
-      <c r="K38">
         <v>1.192093E-7</v>
       </c>
-      <c r="L38">
-        <v>1.192093E-7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2095,37 +1609,25 @@
         <v>36</v>
       </c>
       <c r="C39">
-        <v>2.4E-2</v>
+        <v>1</v>
       </c>
       <c r="D39">
-        <v>10.023</v>
+        <v>424.27</v>
       </c>
       <c r="E39">
-        <v>13.205</v>
+        <v>558.93499999999995</v>
       </c>
       <c r="F39">
-        <v>15.114000000000001</v>
+        <v>639.73</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>268435500</v>
       </c>
       <c r="H39">
-        <v>424.27</v>
-      </c>
-      <c r="I39">
-        <v>558.93499999999995</v>
-      </c>
-      <c r="J39">
-        <v>639.73</v>
-      </c>
-      <c r="K39">
-        <v>268435500</v>
-      </c>
-      <c r="L39">
         <v>2048</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2133,37 +1635,25 @@
         <v>37</v>
       </c>
       <c r="C40">
-        <v>2.3E-2</v>
+        <v>1</v>
       </c>
       <c r="D40">
-        <v>1.5880000000000001</v>
+        <v>69.138999999999996</v>
       </c>
       <c r="E40">
-        <v>2.1459999999999999</v>
+        <v>93.424000000000007</v>
       </c>
       <c r="F40">
-        <v>2.2360000000000002</v>
+        <v>97.358999999999995</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>1.862645E-9</v>
       </c>
       <c r="H40">
-        <v>69.138999999999996</v>
-      </c>
-      <c r="I40">
-        <v>93.424000000000007</v>
-      </c>
-      <c r="J40">
-        <v>97.358999999999995</v>
-      </c>
-      <c r="K40">
         <v>1.862645E-9</v>
       </c>
-      <c r="L40">
-        <v>1.862645E-9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2171,37 +1661,25 @@
         <v>38</v>
       </c>
       <c r="C41">
-        <v>2.3E-2</v>
+        <v>1</v>
       </c>
       <c r="D41">
-        <v>1.575</v>
+        <v>68.495000000000005</v>
       </c>
       <c r="E41">
-        <v>2.1179999999999999</v>
+        <v>92.129000000000005</v>
       </c>
       <c r="F41">
-        <v>2.2029999999999998</v>
+        <v>95.835999999999999</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>9.3132260000000005E-10</v>
       </c>
       <c r="H41">
-        <v>68.495000000000005</v>
-      </c>
-      <c r="I41">
-        <v>92.129000000000005</v>
-      </c>
-      <c r="J41">
-        <v>95.835999999999999</v>
-      </c>
-      <c r="K41">
         <v>9.3132260000000005E-10</v>
       </c>
-      <c r="L41">
-        <v>9.3132260000000005E-10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2209,37 +1687,25 @@
         <v>39</v>
       </c>
       <c r="C42">
-        <v>2.3E-2</v>
+        <v>1</v>
       </c>
       <c r="D42">
-        <v>1.046</v>
+        <v>46.215000000000003</v>
       </c>
       <c r="E42">
-        <v>1.107</v>
+        <v>48.904000000000003</v>
       </c>
       <c r="F42">
-        <v>0.878</v>
+        <v>38.801000000000002</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>5.9604640000000001E-8</v>
       </c>
       <c r="H42">
-        <v>46.215000000000003</v>
-      </c>
-      <c r="I42">
-        <v>48.904000000000003</v>
-      </c>
-      <c r="J42">
-        <v>38.801000000000002</v>
-      </c>
-      <c r="K42">
-        <v>5.9604640000000001E-8</v>
-      </c>
-      <c r="L42">
         <v>1.192093E-7</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2247,37 +1713,25 @@
         <v>39</v>
       </c>
       <c r="C43">
-        <v>2.3E-2</v>
+        <v>1</v>
       </c>
       <c r="D43">
-        <v>1.046</v>
+        <v>46.215000000000003</v>
       </c>
       <c r="E43">
-        <v>1.107</v>
+        <v>48.904000000000003</v>
       </c>
       <c r="F43">
-        <v>0.878</v>
+        <v>38.801000000000002</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>5.9604640000000001E-8</v>
       </c>
       <c r="H43">
-        <v>46.215000000000003</v>
-      </c>
-      <c r="I43">
-        <v>48.904000000000003</v>
-      </c>
-      <c r="J43">
-        <v>38.801000000000002</v>
-      </c>
-      <c r="K43">
-        <v>5.9604640000000001E-8</v>
-      </c>
-      <c r="L43">
         <v>1.192093E-7</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2285,37 +1739,25 @@
         <v>62</v>
       </c>
       <c r="C44">
-        <v>2.1999999999999999E-2</v>
+        <v>1</v>
       </c>
       <c r="D44">
-        <v>4.8000000000000001E-2</v>
+        <v>2.2149999999999999</v>
       </c>
       <c r="E44">
-        <v>5.3999999999999999E-2</v>
+        <v>2.4660000000000002</v>
       </c>
       <c r="F44">
-        <v>0.121</v>
+        <v>5.5880000000000001</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>5.8060299999999998</v>
       </c>
       <c r="H44">
-        <v>2.2149999999999999</v>
-      </c>
-      <c r="I44">
-        <v>2.4660000000000002</v>
-      </c>
-      <c r="J44">
-        <v>5.5880000000000001</v>
-      </c>
-      <c r="K44">
-        <v>5.8060299999999998</v>
-      </c>
-      <c r="L44">
         <v>3044.1489999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2323,37 +1765,25 @@
         <v>40</v>
       </c>
       <c r="C45">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="D45">
-        <v>10.284000000000001</v>
+        <v>508.95699999999999</v>
       </c>
       <c r="E45">
-        <v>12.228999999999999</v>
+        <v>605.21100000000001</v>
       </c>
       <c r="F45">
-        <v>11.587</v>
+        <v>573.42999999999995</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>131072</v>
       </c>
       <c r="H45">
-        <v>508.95699999999999</v>
-      </c>
-      <c r="I45">
-        <v>605.21100000000001</v>
-      </c>
-      <c r="J45">
-        <v>573.42999999999995</v>
-      </c>
-      <c r="K45">
-        <v>131072</v>
-      </c>
-      <c r="L45">
         <v>65536</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2361,37 +1791,25 @@
         <v>41</v>
       </c>
       <c r="C46">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="D46">
-        <v>10.298</v>
+        <v>515.31500000000005</v>
       </c>
       <c r="E46">
-        <v>13.651</v>
+        <v>683.12900000000002</v>
       </c>
       <c r="F46">
-        <v>10.179</v>
+        <v>509.34899999999999</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H46">
-        <v>515.31500000000005</v>
-      </c>
-      <c r="I46">
-        <v>683.12900000000002</v>
-      </c>
-      <c r="J46">
-        <v>509.34899999999999</v>
-      </c>
-      <c r="K46">
-        <v>4</v>
-      </c>
-      <c r="L46">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2399,37 +1817,25 @@
         <v>42</v>
       </c>
       <c r="C47">
-        <v>1.7000000000000001E-2</v>
+        <v>1</v>
       </c>
       <c r="D47">
-        <v>11.664</v>
+        <v>685.04200000000003</v>
       </c>
       <c r="E47">
-        <v>14.215999999999999</v>
+        <v>834.90800000000002</v>
       </c>
       <c r="F47">
-        <v>13.707000000000001</v>
+        <v>805.01400000000001</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>256</v>
       </c>
       <c r="H47">
-        <v>685.04200000000003</v>
-      </c>
-      <c r="I47">
-        <v>834.90800000000002</v>
-      </c>
-      <c r="J47">
-        <v>805.01400000000001</v>
-      </c>
-      <c r="K47">
-        <v>256</v>
-      </c>
-      <c r="L47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2437,37 +1843,25 @@
         <v>43</v>
       </c>
       <c r="C48">
-        <v>1.7000000000000001E-2</v>
+        <v>1</v>
       </c>
       <c r="D48">
-        <v>4.4530000000000003</v>
+        <v>260.84199999999998</v>
       </c>
       <c r="E48">
-        <v>5.9560000000000004</v>
+        <v>348.89600000000002</v>
       </c>
       <c r="F48">
-        <v>6.1159999999999997</v>
+        <v>358.25200000000001</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>5.9604640000000001E-8</v>
       </c>
       <c r="H48">
-        <v>260.84199999999998</v>
-      </c>
-      <c r="I48">
-        <v>348.89600000000002</v>
-      </c>
-      <c r="J48">
-        <v>358.25200000000001</v>
-      </c>
-      <c r="K48">
         <v>5.9604640000000001E-8</v>
       </c>
-      <c r="L48">
-        <v>5.9604640000000001E-8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2475,37 +1869,25 @@
         <v>44</v>
       </c>
       <c r="C49">
-        <v>1.4999999999999999E-2</v>
+        <v>1</v>
       </c>
       <c r="D49">
-        <v>8.7729999999999997</v>
+        <v>568.72699999999998</v>
       </c>
       <c r="E49">
-        <v>11.62</v>
+        <v>753.23900000000003</v>
       </c>
       <c r="F49">
-        <v>10.978999999999999</v>
+        <v>711.70699999999999</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="H49">
-        <v>568.72699999999998</v>
-      </c>
-      <c r="I49">
-        <v>753.23900000000003</v>
-      </c>
-      <c r="J49">
-        <v>711.70699999999999</v>
-      </c>
-      <c r="K49">
-        <v>0.25</v>
-      </c>
-      <c r="L49">
         <v>0.125</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2513,37 +1895,25 @@
         <v>45</v>
       </c>
       <c r="C50">
-        <v>1.2999999999999999E-2</v>
+        <v>1</v>
       </c>
       <c r="D50">
-        <v>10.973000000000001</v>
+        <v>834.81799999999998</v>
       </c>
       <c r="E50">
-        <v>13.868</v>
+        <v>1055.0730000000001</v>
       </c>
       <c r="F50">
-        <v>15.792999999999999</v>
+        <v>1201.576</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H50">
-        <v>834.81799999999998</v>
-      </c>
-      <c r="I50">
-        <v>1055.0730000000001</v>
-      </c>
-      <c r="J50">
-        <v>1201.576</v>
-      </c>
-      <c r="K50">
-        <v>16</v>
-      </c>
-      <c r="L50">
         <v>0.125</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2551,37 +1921,25 @@
         <v>46</v>
       </c>
       <c r="C51">
-        <v>1.0999999999999999E-2</v>
+        <v>1</v>
       </c>
       <c r="D51">
-        <v>8.9019999999999992</v>
+        <v>846.39099999999996</v>
       </c>
       <c r="E51">
-        <v>11.345000000000001</v>
+        <v>1078.605</v>
       </c>
       <c r="F51">
-        <v>14.148999999999999</v>
+        <v>1345.2339999999999</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>3.4694470000000004E-18</v>
       </c>
       <c r="H51">
-        <v>846.39099999999996</v>
-      </c>
-      <c r="I51">
-        <v>1078.605</v>
-      </c>
-      <c r="J51">
-        <v>1345.2339999999999</v>
-      </c>
-      <c r="K51">
         <v>3.4694470000000004E-18</v>
       </c>
-      <c r="L51">
-        <v>3.4694470000000004E-18</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2589,37 +1947,25 @@
         <v>47</v>
       </c>
       <c r="C52">
-        <v>1.2E-2</v>
+        <v>1</v>
       </c>
       <c r="D52">
-        <v>8.6560000000000006</v>
+        <v>696.06700000000001</v>
       </c>
       <c r="E52">
-        <v>14.047000000000001</v>
+        <v>1129.596</v>
       </c>
       <c r="F52">
-        <v>14.602</v>
+        <v>1174.2180000000001</v>
       </c>
       <c r="G52">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="H52">
-        <v>696.06700000000001</v>
-      </c>
-      <c r="I52">
-        <v>1129.596</v>
-      </c>
-      <c r="J52">
-        <v>1174.2180000000001</v>
-      </c>
-      <c r="K52">
-        <v>128</v>
-      </c>
-      <c r="L52">
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -2627,37 +1973,25 @@
         <v>48</v>
       </c>
       <c r="C53">
-        <v>1.2999999999999999E-2</v>
+        <v>1</v>
       </c>
       <c r="D53">
-        <v>1.0449999999999999</v>
+        <v>77.915000000000006</v>
       </c>
       <c r="E53">
-        <v>1.504</v>
+        <v>112.16500000000001</v>
       </c>
       <c r="F53">
-        <v>1.4079999999999999</v>
+        <v>105.032</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>1.862645E-9</v>
       </c>
       <c r="H53">
-        <v>77.915000000000006</v>
-      </c>
-      <c r="I53">
-        <v>112.16500000000001</v>
-      </c>
-      <c r="J53">
-        <v>105.032</v>
-      </c>
-      <c r="K53">
         <v>1.862645E-9</v>
       </c>
-      <c r="L53">
-        <v>1.862645E-9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -2665,37 +1999,25 @@
         <v>49</v>
       </c>
       <c r="C54">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="D54">
-        <v>0.374</v>
+        <v>38.405999999999999</v>
       </c>
       <c r="E54">
-        <v>0.502</v>
+        <v>51.658999999999999</v>
       </c>
       <c r="F54">
-        <v>0.48599999999999999</v>
+        <v>50.000999999999998</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>1.8189889999999999E-12</v>
       </c>
       <c r="H54">
-        <v>38.405999999999999</v>
-      </c>
-      <c r="I54">
-        <v>51.658999999999999</v>
-      </c>
-      <c r="J54">
-        <v>50.000999999999998</v>
-      </c>
-      <c r="K54">
         <v>1.8189889999999999E-12</v>
       </c>
-      <c r="L54">
-        <v>1.8189889999999999E-12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -2703,37 +2025,25 @@
         <v>50</v>
       </c>
       <c r="C55">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="D55">
-        <v>3.5680000000000001</v>
+        <v>371.26299999999998</v>
       </c>
       <c r="E55">
-        <v>4.2869999999999999</v>
+        <v>446.05399999999997</v>
       </c>
       <c r="F55">
-        <v>4.2949999999999999</v>
+        <v>446.89299999999997</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>1.9073489999999998E-6</v>
       </c>
       <c r="H55">
-        <v>371.26299999999998</v>
-      </c>
-      <c r="I55">
-        <v>446.05399999999997</v>
-      </c>
-      <c r="J55">
-        <v>446.89299999999997</v>
-      </c>
-      <c r="K55">
-        <v>1.9073489999999998E-6</v>
-      </c>
-      <c r="L55">
         <v>3.8146969999999998E-6</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -2741,37 +2051,25 @@
         <v>51</v>
       </c>
       <c r="C56">
-        <v>8.9999999999999993E-3</v>
+        <v>1</v>
       </c>
       <c r="D56">
-        <v>3.9590000000000001</v>
+        <v>427.54899999999998</v>
       </c>
       <c r="E56">
-        <v>5.0679999999999996</v>
+        <v>547.32000000000005</v>
       </c>
       <c r="F56">
-        <v>3.4089999999999998</v>
+        <v>368.137</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>2.4414059999999999E-4</v>
       </c>
       <c r="H56">
-        <v>427.54899999999998</v>
-      </c>
-      <c r="I56">
-        <v>547.32000000000005</v>
-      </c>
-      <c r="J56">
-        <v>368.137</v>
-      </c>
-      <c r="K56">
         <v>2.4414059999999999E-4</v>
       </c>
-      <c r="L56">
-        <v>2.4414059999999999E-4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -2779,37 +2077,25 @@
         <v>52</v>
       </c>
       <c r="C57">
-        <v>8.9999999999999993E-3</v>
+        <v>1</v>
       </c>
       <c r="D57">
-        <v>9.4030000000000005</v>
+        <v>1058.7449999999999</v>
       </c>
       <c r="E57">
-        <v>12.012</v>
+        <v>1352.5530000000001</v>
       </c>
       <c r="F57">
-        <v>11.923999999999999</v>
+        <v>1342.636</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>1.5625E-2</v>
       </c>
       <c r="H57">
-        <v>1058.7449999999999</v>
-      </c>
-      <c r="I57">
-        <v>1352.5530000000001</v>
-      </c>
-      <c r="J57">
-        <v>1342.636</v>
-      </c>
-      <c r="K57">
-        <v>1.5625E-2</v>
-      </c>
-      <c r="L57">
         <v>1.953125E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -2817,37 +2103,25 @@
         <v>53</v>
       </c>
       <c r="C58">
-        <v>8.9999999999999993E-3</v>
+        <v>1</v>
       </c>
       <c r="D58">
-        <v>9.0909999999999993</v>
+        <v>1041.546</v>
       </c>
       <c r="E58">
-        <v>12.202999999999999</v>
+        <v>1398.088</v>
       </c>
       <c r="F58">
-        <v>12.318</v>
+        <v>1411.2529999999999</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>1.953125E-3</v>
       </c>
       <c r="H58">
-        <v>1041.546</v>
-      </c>
-      <c r="I58">
-        <v>1398.088</v>
-      </c>
-      <c r="J58">
-        <v>1411.2529999999999</v>
-      </c>
-      <c r="K58">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="L58">
         <v>9.765625E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -2855,37 +2129,25 @@
         <v>54</v>
       </c>
       <c r="C59">
-        <v>1.0999999999999999E-2</v>
+        <v>1</v>
       </c>
       <c r="D59">
-        <v>8.3260000000000005</v>
+        <v>763.78499999999997</v>
       </c>
       <c r="E59">
-        <v>10.696</v>
+        <v>981.18600000000004</v>
       </c>
       <c r="F59">
-        <v>10.478999999999999</v>
+        <v>961.26</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>7.6293949999999998E-6</v>
       </c>
       <c r="H59">
-        <v>763.78499999999997</v>
-      </c>
-      <c r="I59">
-        <v>981.18600000000004</v>
-      </c>
-      <c r="J59">
-        <v>961.26</v>
-      </c>
-      <c r="K59">
-        <v>7.6293949999999998E-6</v>
-      </c>
-      <c r="L59">
         <v>9.5367430000000002E-7</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -2893,37 +2155,25 @@
         <v>61</v>
       </c>
       <c r="C60">
-        <v>8.0000000000000002E-3</v>
+        <v>1</v>
       </c>
       <c r="D60">
-        <v>1.004</v>
+        <v>128.08099999999999</v>
       </c>
       <c r="E60">
-        <v>1.351</v>
+        <v>172.29400000000001</v>
       </c>
       <c r="F60">
-        <v>1.4550000000000001</v>
+        <v>185.58199999999999</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>378.40929999999997</v>
       </c>
       <c r="H60">
-        <v>128.08099999999999</v>
-      </c>
-      <c r="I60">
-        <v>172.29400000000001</v>
-      </c>
-      <c r="J60">
-        <v>185.58199999999999</v>
-      </c>
-      <c r="K60">
-        <v>378.40929999999997</v>
-      </c>
-      <c r="L60">
         <v>0.73052980000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -2931,37 +2181,25 @@
         <v>55</v>
       </c>
       <c r="C61">
-        <v>6.0000000000000001E-3</v>
+        <v>1</v>
       </c>
       <c r="D61">
-        <v>2.1589999999999998</v>
+        <v>340.483</v>
       </c>
       <c r="E61">
-        <v>2.863</v>
+        <v>451.54500000000002</v>
       </c>
       <c r="F61">
-        <v>3.0880000000000001</v>
+        <v>487.06700000000001</v>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>6.1035159999999999E-5</v>
       </c>
       <c r="H61">
-        <v>340.483</v>
-      </c>
-      <c r="I61">
-        <v>451.54500000000002</v>
-      </c>
-      <c r="J61">
-        <v>487.06700000000001</v>
-      </c>
-      <c r="K61">
         <v>6.1035159999999999E-5</v>
       </c>
-      <c r="L61">
-        <v>6.1035159999999999E-5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -2969,37 +2207,25 @@
         <v>60</v>
       </c>
       <c r="C62">
-        <v>8.0000000000000002E-3</v>
+        <v>1</v>
       </c>
       <c r="D62">
-        <v>9.4E-2</v>
+        <v>12.426</v>
       </c>
       <c r="E62">
-        <v>0.379</v>
+        <v>50.116999999999997</v>
       </c>
       <c r="F62">
-        <v>0.503</v>
+        <v>66.423000000000002</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>239.767</v>
       </c>
       <c r="H62">
-        <v>12.426</v>
-      </c>
-      <c r="I62">
-        <v>50.116999999999997</v>
-      </c>
-      <c r="J62">
-        <v>66.423000000000002</v>
-      </c>
-      <c r="K62">
-        <v>239.767</v>
-      </c>
-      <c r="L62">
         <v>5.9544980000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -3007,37 +2233,25 @@
         <v>56</v>
       </c>
       <c r="C63">
-        <v>4.0000000000000001E-3</v>
+        <v>1</v>
       </c>
       <c r="D63">
-        <v>4.6139999999999999</v>
+        <v>1272.43</v>
       </c>
       <c r="E63">
-        <v>6.5380000000000003</v>
+        <v>1803.0840000000001</v>
       </c>
       <c r="F63">
-        <v>7.3620000000000001</v>
+        <v>2030.3009999999999</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>131072</v>
       </c>
       <c r="H63">
-        <v>1272.43</v>
-      </c>
-      <c r="I63">
-        <v>1803.0840000000001</v>
-      </c>
-      <c r="J63">
-        <v>2030.3009999999999</v>
-      </c>
-      <c r="K63">
         <v>131072</v>
       </c>
-      <c r="L63">
-        <v>131072</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -3045,33 +2259,21 @@
         <v>59</v>
       </c>
       <c r="C64">
-        <v>4.0000000000000001E-3</v>
+        <v>1</v>
       </c>
       <c r="D64">
-        <v>0.251</v>
+        <v>69.298000000000002</v>
       </c>
       <c r="E64">
-        <v>0.81699999999999995</v>
+        <v>225.65299999999999</v>
       </c>
       <c r="F64">
-        <v>1.054</v>
+        <v>291.01299999999998</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>186.44380000000001</v>
       </c>
       <c r="H64">
-        <v>69.298000000000002</v>
-      </c>
-      <c r="I64">
-        <v>225.65299999999999</v>
-      </c>
-      <c r="J64">
-        <v>291.01299999999998</v>
-      </c>
-      <c r="K64">
-        <v>186.44380000000001</v>
-      </c>
-      <c r="L64">
         <v>5.5670780000000004</v>
       </c>
     </row>
